--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Arroz.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Arroz.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arroz Branco Tipo 1 Camil 5kg</t>
+          <t>Arroz Arbório Urbano 1kg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd86da90-4909-4139-8211-2dd1b9a5bc71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f05ac62-106c-430a-a854-0a65b74c4fb5.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896038357017</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Arroz Branco Namorado Tipo 1 5kg</t>
+          <t>Arroz Parboilizado Camil Tipo 1 5kg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/682eb321-0cc1-471b-9e37-9f3200126949.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd396bb1-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Arroz Guacira 5kg</t>
+          <t>Arroz Branco Prato Fino Tipo 1 1kg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7a0724c-4bb3-4aaa-922a-d41d3fe4828c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1889dde2-e49d-4a80-ab49-07f2452cd677.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896290300714</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arroz Branco Prato Fino Tipo 1 5kg</t>
+          <t>Arroz La Pastina Negro 500g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1ab248f-152a-4f8b-bad1-738be5c99616.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f55d208d-b02f-4458-a902-cf01c55971d7.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896196060361</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Arroz Camil Tipo 1 1kg</t>
+          <t>Arroz Camil 7 Cereais 1kg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d2659e9-f13d-45fc-9a51-84122cea8a56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/627de8ee-0a08-4875-b2f2-985429bce7ef.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896006779841</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Arroz Integral Camil 1kg</t>
+          <t>Arroz Integral Prato Fino 1kg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb9c32b2-bd21-4ab1-91dc-325d8335cbe0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e53591f8-0803-4472-a395-4ca601dab2bf.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896290300714</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Arroz Branco Prato Fino Tipo 1 1kg</t>
+          <t>Arroz Camil 1kg Reserva Especial</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1889dde2-e49d-4a80-ab49-07f2452cd677.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01f3744-912f-437e-95a3-1990ba9b8c35.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896006762027</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arroz Branco Camil 1kg Tipo 2</t>
+          <t>Arroz Basmati La Pastina 500g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60b90322-b485-4ea5-a57a-112bed1a167c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/076f59e8-e45d-44a5-b90a-dd6e45b973a4.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896196060361</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Arroz Agulhinha Tipo 1 Tio João 1kg</t>
+          <t>Arroz Basmati Urbano 1kg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04e7b3b7-75e5-4017-b2f4-39129d06c3f8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fb8cdbf-817e-48a1-9c68-ce91c05b1e15.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896038300013</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Arroz Camil T1 Parboilizado 1kg</t>
+          <t>Arroz 7 Grao Urbano 500g Lentilha E Girassol</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60599c44-8951-4730-a463-d58f415b3c8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1130f85-c3da-4b17-a2b6-a6fe25309ca8.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896401183984</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Arroz Camil Reserva Especial 5kg</t>
+          <t>Arroz 7 Grao Urbano 500g Painco E Cateto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce0ca40-c138-42ab-95f1-07abb8ecd81d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6158ea82-d21e-4046-942b-5b98804dd2a2.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896401183977</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Arroz Integral Prato Fino 1kg</t>
+          <t>Arroz Jasmine Urbano 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e53591f8-0803-4472-a395-4ca601dab2bf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c73ba57d-79d4-4fbb-b1eb-48205682232e.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896401183960</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Arroz Integral Parabolizado Urbano Tipo1-1kg</t>
+          <t>Arroz Urbano Preto 500g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e2c4216-ae3f-46ce-9362-ceb345017d0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acc9a72f-c188-4a28-9cd2-7f7bea3750d3.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896401183960</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Arroz Parboilizado Camil Tipo 1 5kg</t>
+          <t>Arroz Urbano Vermelho 500g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd396bb1-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17bd2d49-22ee-4484-9dd3-16f26ce86967.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896401183113</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Arroz Longo Fino Tipo 1 Tio João 2kg</t>
+          <t>Arroz Branco Camil 1kg Tipo 2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a3aa210-147d-4d68-b271-b6e39932eaaa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60b90322-b485-4ea5-a57a-112bed1a167c.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Arroz Agulhinha Tipo 1 Tio João 5kg</t>
+          <t>Arroz Camil Reserva Especial 5kg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/251df43b-7ea8-4725-829e-34866c6c4df4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ce0ca40-c138-42ab-95f1-07abb8ecd81d.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896006762027</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Arroz Integral Tio João Tipo 1 1kg</t>
+          <t>Arroz Parbolizado Prato Fino 5kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39b2d15d-cb07-4e5e-a74e-f02c029c4232.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f386d088-7250-4efe-9b0c-b84326236b5f.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896290300332</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Arroz Camil 1kg Reserva Especial</t>
+          <t>Arroz Integral Camil 1kg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 9,79</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e01f3744-912f-437e-95a3-1990ba9b8c35.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb9c32b2-bd21-4ab1-91dc-325d8335cbe0.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896006755517</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Arroz Parboilizado Tio João 1kg</t>
+          <t>Arroz Broto Legal Tipo 1 1kg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/752654fc-bcd3-4fe4-a4c8-c08d6a22ed21.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/309a7fa5-1ae6-4214-8cb0-b1e47ee53517.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896901200235</t>
         </is>
       </c>
     </row>
@@ -987,6 +1087,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0949e2ae-c3b9-4fbd-98e6-3c8b0e7037ad.jpg</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896901200235</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Arroz Parbolizado Prato Fino 5kg</t>
+          <t>Arroz Parboilizado Tio João 1kg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f386d088-7250-4efe-9b0c-b84326236b5f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/752654fc-bcd3-4fe4-a4c8-c08d6a22ed21.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7893500020110</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Arroz Guin Japonês T1 1kg</t>
+          <t>Arroz Integral Tio João Tipo 1 1kg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d3ada6a-1f10-4b56-ace1-dcd2b3bb9e53.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39b2d15d-cb07-4e5e-a74e-f02c029c4232.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7893500018483</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Arroz Camil 7 Cereais 1kg</t>
+          <t>Arroz Agulhinha Tipo 1 Tio João 1kg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/627de8ee-0a08-4875-b2f2-985429bce7ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04e7b3b7-75e5-4017-b2f4-39129d06c3f8.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7893500020110</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Arroz Camil Tp1 2kg</t>
+          <t>Arroz Longo Fino Tipo 1 Tio João 2kg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7aa122d3-984e-47fe-8570-e41b239cc517.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a3aa210-147d-4d68-b271-b6e39932eaaa.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7893500020110</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Arroz Momiji 5kg</t>
+          <t>Arroz Agulhinha Tipo 1 Tio João 5kg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 59,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/737256c4-d941-482d-bfc4-f1a2101a9484.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/251df43b-7ea8-4725-829e-34866c6c4df4.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7893500020110</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Arroz Arbório Urbano 1kg</t>
+          <t>Arroz Camil T1 Parboilizado 1kg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f05ac62-106c-430a-a854-0a65b74c4fb5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/60599c44-8951-4730-a463-d58f415b3c8f.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Arroz Momiji 1kg</t>
+          <t>Arroz Branco Tipo 1 Camil 5kg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e443dfee-8e5c-4102-8d85-7a31971a0bd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd86da90-4909-4139-8211-2dd1b9a5bc71.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Arroz P/risoto La Pastina 1kg</t>
+          <t>Arroz Camil Tp1 2kg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4152b5b4-d9c4-47af-9e9d-c0e62f464532.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7aa122d3-984e-47fe-8570-e41b239cc517.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Arroz 7 Grao Urbano 500g Lentilha E Girassol</t>
+          <t>Arroz Camil Tipo 1 1kg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1130f85-c3da-4b17-a2b6-a6fe25309ca8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d2659e9-f13d-45fc-9a51-84122cea8a56.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896006712114</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Arroz 7 Grao Urbano 500g Azuki Semente Abobora</t>
+          <t>Arroz Momiji 5kg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 59,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd352a58-41d9-40fd-94c2-f902432fe014.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/737256c4-d941-482d-bfc4-f1a2101a9484.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896006791119</t>
         </is>
       </c>
     </row>
@@ -1271,206 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Arroz La Pastina Negro 500g</t>
+          <t>Arroz Momiji 1kg</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f55d208d-b02f-4458-a902-cf01c55971d7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Arroz Basmati La Pastina 500g</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/076f59e8-e45d-44a5-b90a-dd6e45b973a4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Arroz Broto Legal Tipo 1 1kg</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 5,49</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/309a7fa5-1ae6-4214-8cb0-b1e47ee53517.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Arroz 7 Grao Urbano 500g Painco E Cateto</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6158ea82-d21e-4046-942b-5b98804dd2a2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Arroz Basmati Urbano 1kg</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0fb8cdbf-817e-48a1-9c68-ce91c05b1e15.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Arroz Urbano Vermelho 500g</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17bd2d49-22ee-4484-9dd3-16f26ce86967.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Arroz Urbano Preto 500g</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/acc9a72f-c188-4a28-9cd2-7f7bea3750d3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Arroz</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Arroz Jasmine Urbano 500g</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c73ba57d-79d4-4fbb-b1eb-48205682232e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e443dfee-8e5c-4102-8d85-7a31971a0bd3.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896006791119</t>
         </is>
       </c>
     </row>
